--- a/Resources/1993/Basic_Percentile_1993.xlsx
+++ b/Resources/1993/Basic_Percentile_1993.xlsx
@@ -1225,25 +1225,25 @@
     <t>smithre01</t>
   </si>
   <si>
-    <t>Hakeem Olajuwon*</t>
-  </si>
-  <si>
-    <t>Charles Barkley*</t>
-  </si>
-  <si>
-    <t>David Robinson*</t>
-  </si>
-  <si>
-    <t>Michael Jordan*</t>
-  </si>
-  <si>
-    <t>Scottie Pippen*</t>
-  </si>
-  <si>
-    <t>Karl Malone*</t>
-  </si>
-  <si>
-    <t>Clyde Drexler*</t>
+    <t>Hakeem Olajuwon</t>
+  </si>
+  <si>
+    <t>Charles Barkley</t>
+  </si>
+  <si>
+    <t>David Robinson</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>Scottie Pippen</t>
+  </si>
+  <si>
+    <t>Karl Malone</t>
+  </si>
+  <si>
+    <t>Clyde Drexler</t>
   </si>
   <si>
     <t>Derrick Coleman</t>
@@ -1255,7 +1255,7 @@
     <t>Danny Manning</t>
   </si>
   <si>
-    <t>Chris Mullin*</t>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Shawn Kemp</t>
@@ -1285,7 +1285,7 @@
     <t>Tom Gugliotta</t>
   </si>
   <si>
-    <t>Patrick Ewing*</t>
+    <t>Patrick Ewing</t>
   </si>
   <si>
     <t>Brad Daugherty</t>
@@ -1297,7 +1297,7 @@
     <t>Horace Grant</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Kendall Gill</t>
@@ -1321,7 +1321,7 @@
     <t>Jeff Hornacek</t>
   </si>
   <si>
-    <t>Dominique Wilkins*</t>
+    <t>Dominique Wilkins</t>
   </si>
   <si>
     <t>Tim Hardaway</t>
@@ -1357,7 +1357,7 @@
     <t>Derrick McKey</t>
   </si>
   <si>
-    <t>John Stockton*</t>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Grant Long</t>
@@ -1402,7 +1402,7 @@
     <t>Robert Horry</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Dee Brown</t>
@@ -1417,13 +1417,13 @@
     <t>Jerome Kersey</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Mark Jackson</t>
   </si>
   <si>
-    <t>Isiah Thomas*</t>
+    <t>Isiah Thomas</t>
   </si>
   <si>
     <t>Xavier McDaniel</t>
@@ -1435,7 +1435,7 @@
     <t>Tyrone Corbin</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Glen Rice</t>
@@ -1447,7 +1447,7 @@
     <t>Terry Porter</t>
   </si>
   <si>
-    <t>Mitch Richmond*</t>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>A.C. Green</t>
@@ -1504,16 +1504,16 @@
     <t>Mark Price</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
-  </si>
-  <si>
-    <t>Dennis Rodman*</t>
-  </si>
-  <si>
-    <t>James Worthy*</t>
-  </si>
-  <si>
-    <t>Drazen Petrovic*</t>
+    <t>Alonzo Mourning</t>
+  </si>
+  <si>
+    <t>Dennis Rodman</t>
+  </si>
+  <si>
+    <t>James Worthy</t>
+  </si>
+  <si>
+    <t>Drazen Petrovic</t>
   </si>
   <si>
     <t>Otis Thorpe</t>
@@ -1522,7 +1522,7 @@
     <t>Spud Webb</t>
   </si>
   <si>
-    <t>Sarunas Marciulionis*</t>
+    <t>Sarunas Marciulionis</t>
   </si>
   <si>
     <t>John Starks</t>
@@ -1558,7 +1558,7 @@
     <t>Mahmoud Abdul-Rauf</t>
   </si>
   <si>
-    <t>Robert Parish*</t>
+    <t>Robert Parish</t>
   </si>
   <si>
     <t>Thomas Jordan</t>
@@ -1615,7 +1615,7 @@
     <t>Doc Rivers</t>
   </si>
   <si>
-    <t>Joe Dumars*</t>
+    <t>Joe Dumars</t>
   </si>
   <si>
     <t>Scott Williams</t>
@@ -1765,7 +1765,7 @@
     <t>Gary Grant</t>
   </si>
   <si>
-    <t>Kevin McHale*</t>
+    <t>Kevin McHale</t>
   </si>
   <si>
     <t>Johnny Dawkins</t>
@@ -1822,7 +1822,7 @@
     <t>Donald Hodge</t>
   </si>
   <si>
-    <t>Moses Malone*</t>
+    <t>Moses Malone</t>
   </si>
   <si>
     <t>Vern Fleming</t>
@@ -1981,7 +1981,7 @@
     <t>Tony Campbell</t>
   </si>
   <si>
-    <t>Maurice Cheeks*</t>
+    <t>Maurice Cheeks</t>
   </si>
   <si>
     <t>Lee Mayberry</t>
@@ -2221,7 +2221,7 @@
     <t>Chris Corchiani</t>
   </si>
   <si>
-    <t>Bernard King*</t>
+    <t>Bernard King</t>
   </si>
   <si>
     <t>Kenny Battle</t>
